--- a/biology/Neurosciences/Récepteur_ionotrope/Récepteur_ionotrope.xlsx
+++ b/biology/Neurosciences/Récepteur_ionotrope/Récepteur_ionotrope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_ionotrope</t>
+          <t>Récepteur_ionotrope</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un récepteur ionotrope sensible à un ligand est une protéine membranaire qui ouvre un canal ionique grâce à la liaison d'un messager chimique ou neurotransmetteur. Ils sont généralement sélectifs à un type d'ions tels que Na+, K+, Ca2+ ou Cl−. Ils sont localisés au niveau des synapses, où ils convertissent de manière extrêmement rapide un message pré-synaptique chimique (neurotransmetteur) en message post-synaptique électrique. Les récepteurs ionotropes s'opposent aux récepteurs métabotropes, qui eux ne possèdent pas de canaux ioniques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_ionotrope</t>
+          <t>Récepteur_ionotrope</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les récepteurs pentamériques (ou Cys-loop) : ils sont constitués de 5 sous-unités. On y distingue les canaux cationiques (récepteur nicotinique ou nAChR, récepteur sérotoninergique 5HT3) et les canaux anioniques (récepteur GABAA et GABAC, récepteur Glycine).
 Les récepteurs tétramériques (ou récepteur glutamate) : ils sont constitués de 4 sous-unités, sont activés par le glutamate et sont sélectifs pour les cations. On y distingue les récepteurs NMDA, récepteurs kaïnate et récepteurs AMPA en fonction de leur pharmacologie respective.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_ionotrope</t>
+          <t>Récepteur_ionotrope</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Dale Purves, G-J Augustine, D. Fitzpatrick, W-C Hall, LaManta, McNamara, Williams, Neurosciences, De Boeck, 2005, 811 p..
